--- a/HACKNAO/countDigit.xlsx
+++ b/HACKNAO/countDigit.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenminhduc/Desktop/CODE/OOP-C-/HACKNAO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenminhduc/Desktop/CODE/OOP-C++/HACKNAO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5337417C-875F-3647-91EA-2FBE50783AF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1A53BC-91BF-7C4A-B8E5-BA31CFC046BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{C9BAADBE-6969-B14F-A7BB-9B1715EEE184}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -490,6 +490,17 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
     <row r="6" spans="1:11" ht="26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
